--- a/회원목록_0404.xlsx
+++ b/회원목록_0404.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13D1C9-E8A9-407D-A88A-68EE625CEF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4632044C-0500-4192-A56F-AAE912F525BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="3750" windowWidth="28800" windowHeight="15470" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,14 @@
   </si>
   <si>
     <t>노마엔젤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소빙수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랫마을고구마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +603,7 @@
   <dimension ref="B1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -614,7 +622,7 @@
       </c>
       <c r="E1">
         <f>COUNTA(F:F)-1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -690,7 +698,7 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
@@ -698,18 +706,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>5</v>
       </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -853,8 +867,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D40">
-    <sortCondition ref="C2:C40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G12">
+    <sortCondition ref="F2:F12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
